--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/15_Bayburt_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/15_Bayburt_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC31893-C80A-4EF9-BFFC-28C120D147D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A882AE25-1F28-4C04-999C-C29DDC20F691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{856CE0A3-81D5-40EB-83B1-CC8332669A00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{D6D3C8F6-5351-4B1C-BC0B-26887ED42633}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -851,14 +851,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{57543029-C5A1-410E-B3DC-21BDFC2FB4E2}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2226E564-61BF-4D1C-A424-2878706022E9}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{14D87EC9-3689-4C91-8F02-A3783441C4D1}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{24AD8B6C-DE3D-4C23-AD23-380689FAE5D2}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8EA0F0F2-6657-45BD-9BE0-35881BA205A4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3C2E42F2-DAD3-4014-8725-6747E2AB1F21}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{8396B20F-A69E-4AEE-845F-51836629EE96}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7AB554ED-C890-4FF2-A0B8-069D970CF7CC}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{10279D96-7E15-4423-90F3-F829F837371D}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F2749BCB-9599-4894-8064-45981A8A83AF}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{1C710819-18AC-4CB1-94C5-C6DE841C40D8}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{777E9923-5761-4C44-AC12-BAAD8423ED34}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{DF3CB046-99B5-4031-A37A-978797FDA517}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6A43DAD6-9841-46EE-8D00-FE0086323120}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{BB59783F-5D47-4FCA-9286-F5FF332CD15B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2EEA54D2-F018-4700-857E-FD09ABA9D293}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1228,7 +1228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCD8980-0D01-4EAD-988A-59731A9C282E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2848152B-5FE6-46A9-99BA-B310A566789A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2425,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B75E596-2062-40EA-99A1-9ACCDA795835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427A0644-F637-4DC1-AFA1-0453057CDC21}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3623,7 +3623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C16F0B-710E-4DD9-8D2F-49564C49D180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8DDE63-7669-4F9A-9A5A-3BCE20B9B818}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4832,7 +4832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8E14D6-130A-4EFD-A7B3-32909D6810C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCCF325-C516-4058-919E-F5516A73C23A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6041,7 +6041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6992DF3B-A5BE-4A75-9C97-A87CD3D9C685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F515761E-68F6-47BB-93BB-AC435BD35D21}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7234,7 +7234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8547F9-9CF9-4F6D-A22C-A3C64BE98FC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615B4CDD-19AE-4C66-A948-CFB1656B2B2B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
